--- a/爬虫配置/job51/job51.xlsx
+++ b/爬虫配置/job51/job51.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="16335" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="datascrapy" sheetId="1" r:id="rId1"/>
@@ -14,81 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=淘宝天下传媒有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州恒业网络信息有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州酷跃科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江亚克药业有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州美中宜和妇儿医院有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江颐方健康科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州尽心药店连锁有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州余杭妇产医院有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州绿春环境工程有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州月子湾健康管理有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江君宝康食品有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=临安同济妇科医院有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州爱弥儿母婴服务有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州麦力斯科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州欧盼木品有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江毅腾健康产业有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州康膳堂生物科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州呼啸信息科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州益巨科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州养泰和健康科技有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州新华卓越门诊部有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=浙江艳妆文化创意有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州航红搬家服务有限公司%40V</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com/s?wd=杭州雀皇生物科技有限公司%40V</t>
   </si>
 </sst>
 </file>
@@ -463,10 +391,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -477,126 +405,6 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
